--- a/Data Structure/CFD simlation/raceWay/dimensionalAnalysis/V3/playResults.xlsx
+++ b/Data Structure/CFD simlation/raceWay/dimensionalAnalysis/V3/playResults.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="72">
   <si>
     <t>Case</t>
   </si>
@@ -260,6 +260,15 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>MeanMagU R*R</t>
+  </si>
+  <si>
+    <t>Ucritical5R</t>
+  </si>
+  <si>
+    <t>Ucritical3R</t>
   </si>
 </sst>
 </file>
@@ -780,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:W119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N113" sqref="N113"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -798,9 +807,10 @@
     <col min="18" max="18" width="16.42578125" customWidth="1"/>
     <col min="19" max="19" width="15.28515625" customWidth="1"/>
     <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75">
+    <row r="1" spans="1:23" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -861,8 +871,17 @@
       <c r="T1" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.75">
+      <c r="U1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.75">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -926,8 +945,17 @@
       <c r="S2" s="6">
         <v>0.1888427734375</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75">
+      <c r="U2">
+        <v>0.30929712930195802</v>
+      </c>
+      <c r="V2">
+        <v>0.1431884765625</v>
+      </c>
+      <c r="W2">
+        <v>0.2457275390625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -991,8 +1019,17 @@
       <c r="S3" s="6">
         <v>2.84423828125E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75">
+      <c r="U3">
+        <v>3.63821428517501E-2</v>
+      </c>
+      <c r="V3">
+        <v>2.84423828125E-2</v>
+      </c>
+      <c r="W3">
+        <v>2.84423828125E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1056,8 +1093,17 @@
       <c r="S4" s="6">
         <v>4.04052734375E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75">
+      <c r="U4">
+        <v>6.7859256565570805E-2</v>
+      </c>
+      <c r="V4">
+        <v>3.52783203125E-2</v>
+      </c>
+      <c r="W4">
+        <v>4.30908203125E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1121,8 +1167,17 @@
       <c r="S5" s="6">
         <v>8.94775390625E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75">
+      <c r="U5">
+        <v>0.13452979614337299</v>
+      </c>
+      <c r="V5">
+        <v>7.01904296875E-2</v>
+      </c>
+      <c r="W5">
+        <v>0.1065673828125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1186,8 +1241,17 @@
       <c r="S6" s="6">
         <v>0.1365966796875</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75">
+      <c r="U6">
+        <v>0.19567753245801101</v>
+      </c>
+      <c r="V6">
+        <v>0.1026611328125</v>
+      </c>
+      <c r="W6">
+        <v>0.1746826171875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1251,8 +1315,17 @@
       <c r="S7" s="6">
         <v>0.1571044921875</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75">
+      <c r="U7">
+        <v>0.26329627056916599</v>
+      </c>
+      <c r="V7">
+        <v>0.1336669921875</v>
+      </c>
+      <c r="W7">
+        <v>0.2120361328125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1316,8 +1389,17 @@
       <c r="S8" s="6">
         <v>0.2149658203125</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75">
+      <c r="U8">
+        <v>0.32831444660822601</v>
+      </c>
+      <c r="V8">
+        <v>0.1829833984375</v>
+      </c>
+      <c r="W8">
+        <v>0.2735595703125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1381,8 +1463,17 @@
       <c r="S9" s="6">
         <v>0.2528076171875</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75">
+      <c r="U9">
+        <v>0.38094857374827101</v>
+      </c>
+      <c r="V9">
+        <v>0.1964111328125</v>
+      </c>
+      <c r="W9">
+        <v>0.3162841796875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1445,8 +1536,17 @@
       <c r="S10" s="11">
         <v>0.2845458984375</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75">
+      <c r="U10">
+        <v>0.31893940708216501</v>
+      </c>
+      <c r="V10">
+        <v>0.2342529296875</v>
+      </c>
+      <c r="W10">
+        <v>0.3309326171875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1509,8 +1609,17 @@
       <c r="S11" s="11">
         <v>3.25927734375E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75">
+      <c r="U11">
+        <v>7.0876591784112597E-2</v>
+      </c>
+      <c r="V11">
+        <v>2.79541015625E-2</v>
+      </c>
+      <c r="W11">
+        <v>4.16259765625E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1573,8 +1682,17 @@
       <c r="S12" s="11">
         <v>7.40966796875E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75">
+      <c r="U12">
+        <v>0.11524979916273401</v>
+      </c>
+      <c r="V12">
+        <v>5.45654296875E-2</v>
+      </c>
+      <c r="W12">
+        <v>9.19189453125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1637,8 +1755,17 @@
       <c r="S13" s="11">
         <v>0.1444091796875</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75">
+      <c r="U13">
+        <v>0.216934909522533</v>
+      </c>
+      <c r="V13">
+        <v>0.1112060546875</v>
+      </c>
+      <c r="W13">
+        <v>0.1824951171875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1701,8 +1828,17 @@
       <c r="S14" s="11">
         <v>0.2030029296875</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75">
+      <c r="U14">
+        <v>0.27435265393818098</v>
+      </c>
+      <c r="V14">
+        <v>0.1639404296875</v>
+      </c>
+      <c r="W14">
+        <v>0.2569580078125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1765,8 +1901,17 @@
       <c r="S15" s="11">
         <v>0.1956787109375</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75">
+      <c r="U15">
+        <v>0.258529844582081</v>
+      </c>
+      <c r="V15">
+        <v>0.1802978515625</v>
+      </c>
+      <c r="W15">
+        <v>0.2537841796875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1829,8 +1974,17 @@
       <c r="S16" s="11">
         <v>0.2894287109375</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.75">
+      <c r="U16">
+        <v>0.372149212956429</v>
+      </c>
+      <c r="V16">
+        <v>0.2623291015625</v>
+      </c>
+      <c r="W16">
+        <v>0.3499755859375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.75">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1893,8 +2047,17 @@
       <c r="S17" s="11">
         <v>0.3345947265625</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="U17">
+        <v>0.409539142847061</v>
+      </c>
+      <c r="V17">
+        <v>0.2357177734375</v>
+      </c>
+      <c r="W17">
+        <v>0.3873291015625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -1957,8 +2120,17 @@
       <c r="S18" s="14">
         <v>0.3118896484375</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="15.75">
+      <c r="U18">
+        <v>0.34424748241901398</v>
+      </c>
+      <c r="V18">
+        <v>0.4998779296875</v>
+      </c>
+      <c r="W18">
+        <v>0.3709716796875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15.75">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -2021,8 +2193,17 @@
       <c r="S19" s="14">
         <v>5.18798828125E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.75">
+      <c r="U19">
+        <v>6.14517574362895E-2</v>
+      </c>
+      <c r="V19">
+        <v>5.01708984375E-2</v>
+      </c>
+      <c r="W19">
+        <v>7.11669921875E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -2085,8 +2266,17 @@
       <c r="S20" s="14">
         <v>8.19091796875E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75">
+      <c r="U20">
+        <v>0.105971195846796</v>
+      </c>
+      <c r="V20">
+        <v>6.43310546875E-2</v>
+      </c>
+      <c r="W20">
+        <v>0.1026611328125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -2149,8 +2339,17 @@
       <c r="S21" s="14">
         <v>0.1639404296875</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75">
+      <c r="U21">
+        <v>0.207948716282845</v>
+      </c>
+      <c r="V21">
+        <v>0.1370849609375</v>
+      </c>
+      <c r="W21">
+        <v>0.2186279296875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -2213,8 +2412,17 @@
       <c r="S22" s="14">
         <v>0.2462158203125</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="15.75">
+      <c r="U22">
+        <v>0.30020004868507399</v>
+      </c>
+      <c r="V22">
+        <v>0.1934814453125</v>
+      </c>
+      <c r="W22">
+        <v>0.3048095703125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -2277,8 +2485,17 @@
       <c r="S23" s="14">
         <v>0.3280029296875</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="15.75">
+      <c r="U23">
+        <v>0.374343218207359</v>
+      </c>
+      <c r="V23">
+        <v>0.2672119140625</v>
+      </c>
+      <c r="W23">
+        <v>0.3836669921875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.75">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -2341,8 +2558,17 @@
       <c r="S24" s="14">
         <v>0.3477783203125</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="15.75">
+      <c r="U24">
+        <v>0.391824997067452</v>
+      </c>
+      <c r="V24">
+        <v>0.2750244140625</v>
+      </c>
+      <c r="W24">
+        <v>0.4354248046875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -2405,8 +2631,17 @@
       <c r="S25" s="14">
         <v>0.3858642578125</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="U25">
+        <v>0.44397221028804801</v>
+      </c>
+      <c r="V25">
+        <v>0.3553466796875</v>
+      </c>
+      <c r="W25">
+        <v>0.4837646484375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -2469,8 +2704,17 @@
       <c r="S26" s="17">
         <v>0.2420654296875</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="15.75">
+      <c r="U26">
+        <v>0.32905299782753</v>
+      </c>
+      <c r="V26">
+        <v>0.1788330078125</v>
+      </c>
+      <c r="W26">
+        <v>0.3255615234375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -2533,8 +2777,17 @@
       <c r="S27" s="17">
         <v>3.13720703125E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.75">
+      <c r="U27">
+        <v>5.7849074974656099E-2</v>
+      </c>
+      <c r="V27">
+        <v>2.89306640625E-2</v>
+      </c>
+      <c r="W27">
+        <v>3.28369140625E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -2597,8 +2850,17 @@
       <c r="S28" s="17">
         <v>5.48095703125E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" ht="15.75">
+      <c r="U28">
+        <v>8.5976083427667604E-2</v>
+      </c>
+      <c r="V28">
+        <v>5.33447265625E-2</v>
+      </c>
+      <c r="W28">
+        <v>5.82275390625E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15.75">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -2661,8 +2923,17 @@
       <c r="S29" s="17">
         <v>0.1151123046875</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.75">
+      <c r="U29">
+        <v>0.15103962630033499</v>
+      </c>
+      <c r="V29">
+        <v>7.45849609375E-2</v>
+      </c>
+      <c r="W29">
+        <v>0.1397705078125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15.75">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -2725,8 +2996,17 @@
       <c r="S30" s="17">
         <v>0.1473388671875</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.75">
+      <c r="U30">
+        <v>0.229264724780532</v>
+      </c>
+      <c r="V30">
+        <v>0.1009521484375</v>
+      </c>
+      <c r="W30">
+        <v>0.2030029296875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15.75">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -2789,8 +3069,17 @@
       <c r="S31" s="17">
         <v>0.1873779296875</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="15.75">
+      <c r="U31">
+        <v>0.29369936406612401</v>
+      </c>
+      <c r="V31">
+        <v>0.1424560546875</v>
+      </c>
+      <c r="W31">
+        <v>0.2735595703125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15.75">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -2853,8 +3142,17 @@
       <c r="S32" s="17">
         <v>0.2659912109375</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="15.75">
+      <c r="U32">
+        <v>0.35168520726409602</v>
+      </c>
+      <c r="V32">
+        <v>0.2127685546875</v>
+      </c>
+      <c r="W32">
+        <v>0.3499755859375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.75">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -2917,8 +3215,17 @@
       <c r="S33" s="17">
         <v>0.2779541015625</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="U33">
+        <v>0.38805708055402699</v>
+      </c>
+      <c r="V33">
+        <v>0.2496337890625</v>
+      </c>
+      <c r="W33">
+        <v>0.3499755859375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -2981,8 +3288,17 @@
       <c r="S34" s="11">
         <v>0.2498779296875</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" ht="15.75">
+      <c r="U34">
+        <v>0.34659038722515101</v>
+      </c>
+      <c r="V34">
+        <v>0.1612548828125</v>
+      </c>
+      <c r="W34">
+        <v>0.3162841796875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3045,8 +3361,17 @@
       <c r="S35" s="11">
         <v>1.91650390625E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" ht="15.75">
+      <c r="U35">
+        <v>4.4976752325892502E-2</v>
+      </c>
+      <c r="V35">
+        <v>1.89208984375E-2</v>
+      </c>
+      <c r="W35">
+        <v>3.11279296875E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3109,8 +3434,17 @@
       <c r="S36" s="11">
         <v>4.06494140625E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" ht="15.75">
+      <c r="U36">
+        <v>7.9671830683946607E-2</v>
+      </c>
+      <c r="V36">
+        <v>3.21044921875E-2</v>
+      </c>
+      <c r="W36">
+        <v>4.96826171875E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3173,8 +3507,17 @@
       <c r="S37" s="11">
         <v>9.82666015625E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.75">
+      <c r="U37">
+        <v>0.144252315163612</v>
+      </c>
+      <c r="V37">
+        <v>7.43408203125E-2</v>
+      </c>
+      <c r="W37">
+        <v>0.1160888671875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3237,8 +3580,17 @@
       <c r="S38" s="11">
         <v>0.1483154296875</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" ht="15.75">
+      <c r="U38">
+        <v>0.21941200862912599</v>
+      </c>
+      <c r="V38">
+        <v>0.1158447265625</v>
+      </c>
+      <c r="W38">
+        <v>0.1798095703125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3301,8 +3653,17 @@
       <c r="S39" s="11">
         <v>0.1815185546875</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" ht="15.75">
+      <c r="U39">
+        <v>0.28694544732570698</v>
+      </c>
+      <c r="V39">
+        <v>0.1448974609375</v>
+      </c>
+      <c r="W39">
+        <v>0.4998779296875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3365,8 +3726,17 @@
       <c r="S40" s="11">
         <v>0.2347412109375</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" ht="15.75">
+      <c r="U40">
+        <v>0.405696920752525</v>
+      </c>
+      <c r="V40">
+        <v>0.1766357421875</v>
+      </c>
+      <c r="W40">
+        <v>0.3748779296875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3429,8 +3799,17 @@
       <c r="S41" s="11">
         <v>0.2840576171875</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="U41">
+        <v>0.43987720251083401</v>
+      </c>
+      <c r="V41">
+        <v>0.2347412109375</v>
+      </c>
+      <c r="W41">
+        <v>0.3826904296875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -3493,8 +3872,17 @@
       <c r="S42" s="14">
         <v>0.1539306640625</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" ht="15.75">
+      <c r="U42">
+        <v>0.341620938181877</v>
+      </c>
+      <c r="V42">
+        <v>0.1385498046875</v>
+      </c>
+      <c r="W42">
+        <v>0.2186279296875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -3557,8 +3945,17 @@
       <c r="S43" s="14">
         <v>6.9580078125E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" ht="15.75">
+      <c r="U43">
+        <v>3.5239972621202501E-2</v>
+      </c>
+      <c r="V43">
+        <v>6.9580078125E-3</v>
+      </c>
+      <c r="W43">
+        <v>6.9580078125E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -3621,8 +4018,17 @@
       <c r="S44" s="14">
         <v>4.38232421875E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" ht="15.75">
+      <c r="U44">
+        <v>8.5938993692398102E-2</v>
+      </c>
+      <c r="V44">
+        <v>4.38232421875E-2</v>
+      </c>
+      <c r="W44">
+        <v>4.99267578125E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15.75">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -3685,8 +4091,17 @@
       <c r="S45" s="14">
         <v>5.92041015625E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" ht="15.75">
+      <c r="U45">
+        <v>0.14548411935567901</v>
+      </c>
+      <c r="V45">
+        <v>3.72314453125E-2</v>
+      </c>
+      <c r="W45">
+        <v>8.82568359375E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -3749,8 +4164,17 @@
       <c r="S46" s="14">
         <v>8.87451171875E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" ht="15.75">
+      <c r="U46">
+        <v>0.21621680676937099</v>
+      </c>
+      <c r="V46">
+        <v>6.87255859375E-2</v>
+      </c>
+      <c r="W46">
+        <v>0.1429443359375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -3813,8 +4237,17 @@
       <c r="S47" s="14">
         <v>0.1373291015625</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" ht="15.75">
+      <c r="U47">
+        <v>0.28481420695781701</v>
+      </c>
+      <c r="V47">
+        <v>0.1038818359375</v>
+      </c>
+      <c r="W47">
+        <v>0.1563720703125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="15.75">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -3877,8 +4310,17 @@
       <c r="S48" s="14">
         <v>0.1873779296875</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" ht="15.75">
+      <c r="U48">
+        <v>0.38000528752803803</v>
+      </c>
+      <c r="V48">
+        <v>0.1536865234375</v>
+      </c>
+      <c r="W48">
+        <v>0.2318115234375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15.75">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -3941,8 +4383,17 @@
       <c r="S49" s="14">
         <v>0.1873779296875</v>
       </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="U49">
+        <v>0.41215062022209198</v>
+      </c>
+      <c r="V49">
+        <v>0.1600341796875</v>
+      </c>
+      <c r="W49">
+        <v>0.2261962890625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="17">
         <v>49</v>
       </c>
@@ -4005,8 +4456,17 @@
       <c r="S50" s="17">
         <v>0.2498779296875</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" ht="15.75">
+      <c r="U50">
+        <v>0.31743667066097297</v>
+      </c>
+      <c r="V50">
+        <v>9.92431640625E-2</v>
+      </c>
+      <c r="W50">
+        <v>0.1585693359375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="15.75">
       <c r="A51" s="17">
         <v>50</v>
       </c>
@@ -4069,8 +4529,17 @@
       <c r="S51" s="17">
         <v>3.7841796875E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" ht="15.75">
+      <c r="U51">
+        <v>3.0300116464495701E-2</v>
+      </c>
+      <c r="V51">
+        <v>2.8076171875E-3</v>
+      </c>
+      <c r="W51">
+        <v>3.7841796875E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15.75">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -4133,8 +4602,17 @@
       <c r="S52" s="17">
         <v>3.2958984375E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" ht="15.75">
+      <c r="U52">
+        <v>6.5923352688550901E-2</v>
+      </c>
+      <c r="V52">
+        <v>3.2958984375E-3</v>
+      </c>
+      <c r="W52">
+        <v>2.72216796875E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="15.75">
       <c r="A53" s="17">
         <v>52</v>
       </c>
@@ -4197,8 +4675,17 @@
       <c r="S53" s="17">
         <v>4.28466796875E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" ht="15.75">
+      <c r="U53">
+        <v>0.14534366190433501</v>
+      </c>
+      <c r="V53">
+        <v>3.52783203125E-2</v>
+      </c>
+      <c r="W53">
+        <v>6.14013671875E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="15.75">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -4261,8 +4748,17 @@
       <c r="S54" s="17">
         <v>6.82373046875E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" ht="15.75">
+      <c r="U54">
+        <v>0.212005595564842</v>
+      </c>
+      <c r="V54">
+        <v>5.01708984375E-2</v>
+      </c>
+      <c r="W54">
+        <v>0.1016845703125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="15.75">
       <c r="A55" s="17">
         <v>54</v>
       </c>
@@ -4325,8 +4821,17 @@
       <c r="S55" s="17">
         <v>0.1024169921875</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" ht="15.75">
+      <c r="U55">
+        <v>0.272017335891724</v>
+      </c>
+      <c r="V55">
+        <v>8.48388671875E-2</v>
+      </c>
+      <c r="W55">
+        <v>0.1287841796875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="15.75">
       <c r="A56" s="17">
         <v>55</v>
       </c>
@@ -4389,8 +4894,17 @@
       <c r="S56" s="17">
         <v>0.1322021484375</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" ht="15.75">
+      <c r="U56">
+        <v>0.35997885290314202</v>
+      </c>
+      <c r="V56">
+        <v>0.1121826171875</v>
+      </c>
+      <c r="W56">
+        <v>0.2498779296875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15.75">
       <c r="A57" s="17">
         <v>56</v>
       </c>
@@ -4453,8 +4967,17 @@
       <c r="S57" s="17">
         <v>0.1483154296875</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" ht="15.75">
+      <c r="U57">
+        <v>0.40820400416850999</v>
+      </c>
+      <c r="V57">
+        <v>0.1104736328125</v>
+      </c>
+      <c r="W57">
+        <v>0.1868896484375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="15.75">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -4517,8 +5040,17 @@
       <c r="S58" s="11">
         <v>0.19013671874999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="U58">
+        <v>0.22019058486370199</v>
+      </c>
+      <c r="V58">
+        <v>0.1551513671875</v>
+      </c>
+      <c r="W58">
+        <v>0.2156982421875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -4581,8 +5113,17 @@
       <c r="S59" s="14">
         <v>0.29990234375000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="U59">
+        <v>0.29928820034616099</v>
+      </c>
+      <c r="V59">
+        <v>0.1947021484375</v>
+      </c>
+      <c r="W59">
+        <v>0.3045654296875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="17">
         <v>59</v>
       </c>
@@ -4645,8 +5186,17 @@
       <c r="S60" s="17">
         <v>0.24990234375000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="U60">
+        <v>0.29294668018817899</v>
+      </c>
+      <c r="V60">
+        <v>0.1522216796875</v>
+      </c>
+      <c r="W60">
+        <v>0.2371826171875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4709,8 +5259,17 @@
       <c r="S61" s="11">
         <v>0.26025390625</v>
       </c>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="U61">
+        <v>0.33053240931131</v>
+      </c>
+      <c r="V61">
+        <v>0.1756591796875</v>
+      </c>
+      <c r="W61">
+        <v>0.3096923828125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -4773,8 +5332,17 @@
       <c r="S62" s="14">
         <v>0.19951171875000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="U62">
+        <v>0.34663662163517101</v>
+      </c>
+      <c r="V62">
+        <v>0.1488037109375</v>
+      </c>
+      <c r="W62">
+        <v>0.2137451171875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="17">
         <v>62</v>
       </c>
@@ -4837,8 +5405,17 @@
       <c r="S63" s="17">
         <v>0.16533203125000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" ht="15.75">
+      <c r="U63">
+        <v>0.344425829648972</v>
+      </c>
+      <c r="V63">
+        <v>0.1094970703125</v>
+      </c>
+      <c r="W63">
+        <v>0.1717529296875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="15.75">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -4905,8 +5482,17 @@
       <c r="T64" s="20">
         <v>0.61799999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" ht="15.75">
+      <c r="U64">
+        <v>0.282716662707654</v>
+      </c>
+      <c r="V64">
+        <v>0.1561279296875</v>
+      </c>
+      <c r="W64">
+        <v>0.2799072265625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="15.75">
       <c r="A65" s="20">
         <v>64</v>
       </c>
@@ -4970,8 +5556,17 @@
       <c r="S65" s="20">
         <v>1.94091796875E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" ht="15.75">
+      <c r="U65">
+        <v>3.3261989687823401E-2</v>
+      </c>
+      <c r="V65">
+        <v>5.7373046875E-3</v>
+      </c>
+      <c r="W65">
+        <v>2.13623046875E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="15.75">
       <c r="A66" s="20">
         <v>65</v>
       </c>
@@ -5035,8 +5630,17 @@
       <c r="S66" s="20">
         <v>3.82080078125E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" ht="15.75">
+      <c r="U66">
+        <v>6.2131694137034101E-2</v>
+      </c>
+      <c r="V66">
+        <v>2.99072265625E-2</v>
+      </c>
+      <c r="W66">
+        <v>5.45654296875E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="15.75">
       <c r="A67" s="20">
         <v>66</v>
       </c>
@@ -5100,8 +5704,17 @@
       <c r="S67" s="20">
         <v>8.31298828125E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" ht="15.75">
+      <c r="U67">
+        <v>0.12451006446710999</v>
+      </c>
+      <c r="V67">
+        <v>0.1248779296875</v>
+      </c>
+      <c r="W67">
+        <v>0.1202392578125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="15.75">
       <c r="A68" s="20">
         <v>67</v>
       </c>
@@ -5165,8 +5778,17 @@
       <c r="S68" s="20">
         <v>0.1326904296875</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" ht="15.75">
+      <c r="U68">
+        <v>0.18166696771301999</v>
+      </c>
+      <c r="V68">
+        <v>0.1041259765625</v>
+      </c>
+      <c r="W68">
+        <v>0.1671142578125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="15.75">
       <c r="A69" s="20">
         <v>68</v>
       </c>
@@ -5230,8 +5852,17 @@
       <c r="S69" s="20">
         <v>0.1781005859375</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" ht="15.75">
+      <c r="U69">
+        <v>0.22943857227536801</v>
+      </c>
+      <c r="V69">
+        <v>0.1444091796875</v>
+      </c>
+      <c r="W69">
+        <v>0.1993408203125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="15.75">
       <c r="A70" s="20">
         <v>69</v>
       </c>
@@ -5295,8 +5926,17 @@
       <c r="S70" s="20">
         <v>0.2318115234375</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" ht="15.75">
+      <c r="U70">
+        <v>0.33209417794238399</v>
+      </c>
+      <c r="V70">
+        <v>0.1983642578125</v>
+      </c>
+      <c r="W70">
+        <v>0.3018798828125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="15.75">
       <c r="A71" s="20">
         <v>70</v>
       </c>
@@ -5360,8 +6000,17 @@
       <c r="S71" s="20">
         <v>0.3123779296875</v>
       </c>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="U71">
+        <v>0.38412753082393303</v>
+      </c>
+      <c r="V71">
+        <v>0.2108154296875</v>
+      </c>
+      <c r="W71">
+        <v>0.3514404296875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="13">
         <v>71</v>
       </c>
@@ -5427,8 +6076,17 @@
       <c r="T72" s="11">
         <v>0.71040000000000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" ht="15.75">
+      <c r="U72">
+        <v>0.31988434454328102</v>
+      </c>
+      <c r="V72">
+        <v>0.2076416015625</v>
+      </c>
+      <c r="W72">
+        <v>0.3101806640625</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="15.75">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -5491,8 +6149,17 @@
       <c r="S73" s="11">
         <v>2.42919921875E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" ht="15.75">
+      <c r="U73">
+        <v>4.5875135515081301E-2</v>
+      </c>
+      <c r="V73">
+        <v>2.28271484375E-2</v>
+      </c>
+      <c r="W73">
+        <v>2.57568359375E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="15.75">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -5555,8 +6222,17 @@
       <c r="S74" s="11">
         <v>5.09033203125E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" ht="15.75">
+      <c r="U74">
+        <v>8.2803338177894301E-2</v>
+      </c>
+      <c r="V74">
+        <v>3.96728515625E-2</v>
+      </c>
+      <c r="W74">
+        <v>5.92041015625E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="15.75">
       <c r="A75" s="13">
         <v>74</v>
       </c>
@@ -5619,8 +6295,17 @@
       <c r="S75" s="11">
         <v>0.1170654296875</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" ht="15.75">
+      <c r="U75">
+        <v>0.156364166226826</v>
+      </c>
+      <c r="V75">
+        <v>7.80029296875E-2</v>
+      </c>
+      <c r="W75">
+        <v>0.1400146484375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="15.75">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -5683,8 +6368,17 @@
       <c r="S76" s="11">
         <v>0.1717529296875</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" ht="15.75">
+      <c r="U76">
+        <v>0.22758393911154601</v>
+      </c>
+      <c r="V76">
+        <v>0.1246337890625</v>
+      </c>
+      <c r="W76">
+        <v>0.2225341796875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="15.75">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -5747,8 +6441,17 @@
       <c r="S77" s="11">
         <v>0.2186279296875</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" ht="15.75">
+      <c r="U77">
+        <v>0.28247675378071602</v>
+      </c>
+      <c r="V77">
+        <v>0.1734619140625</v>
+      </c>
+      <c r="W77">
+        <v>0.3187255859375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="15.75">
       <c r="A78" s="13">
         <v>77</v>
       </c>
@@ -5811,8 +6514,17 @@
       <c r="S78" s="11">
         <v>0.2911376953125</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" ht="15.75">
+      <c r="U78">
+        <v>0.38885948140370202</v>
+      </c>
+      <c r="V78">
+        <v>0.2108154296875</v>
+      </c>
+      <c r="W78">
+        <v>0.3341064453125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="15.75">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -5875,8 +6587,17 @@
       <c r="S79" s="11">
         <v>0.2906494140625</v>
       </c>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="U79">
+        <v>0.430343055803525</v>
+      </c>
+      <c r="V79">
+        <v>0.2496337890625</v>
+      </c>
+      <c r="W79">
+        <v>0.4134521484375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="24">
         <v>79</v>
       </c>
@@ -5942,8 +6663,17 @@
       <c r="T80" s="24">
         <v>0.66739999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" ht="15.75">
+      <c r="U80">
+        <v>0.32199815870859699</v>
+      </c>
+      <c r="V80">
+        <v>0.1873779296875</v>
+      </c>
+      <c r="W80">
+        <v>0.2864990234375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="15.75">
       <c r="A81" s="24">
         <v>80</v>
       </c>
@@ -6006,8 +6736,17 @@
       <c r="S81" s="24">
         <v>2.52685546875E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" ht="15.75">
+      <c r="U81">
+        <v>4.2332816627118498E-2</v>
+      </c>
+      <c r="V81">
+        <v>1.98974609375E-2</v>
+      </c>
+      <c r="W81">
+        <v>2.50244140625E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="15.75">
       <c r="A82" s="24">
         <v>81</v>
       </c>
@@ -6070,8 +6809,17 @@
       <c r="S82" s="24">
         <v>3.99169921875E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" ht="15.75">
+      <c r="U82">
+        <v>7.4479653657256797E-2</v>
+      </c>
+      <c r="V82">
+        <v>3.79638671875E-2</v>
+      </c>
+      <c r="W82">
+        <v>4.47998046875E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="15.75">
       <c r="A83" s="24">
         <v>82</v>
       </c>
@@ -6134,8 +6882,17 @@
       <c r="S83" s="24">
         <v>9.43603515625E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" ht="15.75">
+      <c r="U83">
+        <v>0.14371673743446201</v>
+      </c>
+      <c r="V83">
+        <v>6.79931640625E-2</v>
+      </c>
+      <c r="W83">
+        <v>0.1019287109375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="15.75">
       <c r="A84" s="24">
         <v>83</v>
       </c>
@@ -6198,8 +6955,17 @@
       <c r="S84" s="24">
         <v>0.1485595703125</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" ht="15.75">
+      <c r="U84">
+        <v>0.208217443583848</v>
+      </c>
+      <c r="V84">
+        <v>0.1129150390625</v>
+      </c>
+      <c r="W84">
+        <v>0.1947021484375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="15.75">
       <c r="A85" s="24">
         <v>84</v>
       </c>
@@ -6262,8 +7028,17 @@
       <c r="S85" s="24">
         <v>0.1834716796875</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" ht="15.75">
+      <c r="U85">
+        <v>0.273692572658712</v>
+      </c>
+      <c r="V85">
+        <v>0.1483154296875</v>
+      </c>
+      <c r="W85">
+        <v>0.2457275390625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="15.75">
       <c r="A86" s="24">
         <v>85</v>
       </c>
@@ -6326,8 +7101,17 @@
       <c r="S86" s="24">
         <v>0.2655029296875</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" ht="15.75">
+      <c r="U86">
+        <v>0.36237500085459101</v>
+      </c>
+      <c r="V86">
+        <v>0.2108154296875</v>
+      </c>
+      <c r="W86">
+        <v>0.3077392578125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="15.75">
       <c r="A87" s="24">
         <v>86</v>
       </c>
@@ -6390,8 +7174,17 @@
       <c r="S87" s="24">
         <v>0.2969970703125</v>
       </c>
-    </row>
-    <row r="88" spans="1:20">
+      <c r="U87">
+        <v>0.41407799604651202</v>
+      </c>
+      <c r="V87">
+        <v>0.2401123046875</v>
+      </c>
+      <c r="W87">
+        <v>0.3880615234375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" s="16">
         <v>87</v>
       </c>
@@ -6457,8 +7250,17 @@
       <c r="T88">
         <v>0.45810000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" ht="15.75">
+      <c r="U88">
+        <v>0.31396951961827002</v>
+      </c>
+      <c r="V88">
+        <v>0.1368408203125</v>
+      </c>
+      <c r="W88">
+        <v>0.2108154296875</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="15.75">
       <c r="A89" s="16">
         <v>88</v>
       </c>
@@ -6521,8 +7323,17 @@
       <c r="S89" s="14">
         <v>4.52880859375E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" ht="15.75">
+      <c r="U89">
+        <v>5.28918614054655E-2</v>
+      </c>
+      <c r="V89">
+        <v>4.52880859375E-2</v>
+      </c>
+      <c r="W89">
+        <v>4.52880859375E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="15.75">
       <c r="A90" s="16">
         <v>89</v>
       </c>
@@ -6585,8 +7396,17 @@
       <c r="S90" s="14">
         <v>2.60009765625E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" ht="15.75">
+      <c r="U90">
+        <v>8.1523258190650399E-2</v>
+      </c>
+      <c r="V90">
+        <v>2.60009765625E-2</v>
+      </c>
+      <c r="W90">
+        <v>3.57666015625E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="15.75">
       <c r="A91" s="16">
         <v>90</v>
       </c>
@@ -6649,8 +7469,17 @@
       <c r="S91" s="14">
         <v>6.31103515625E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" ht="15.75">
+      <c r="U91">
+        <v>0.14182433969788699</v>
+      </c>
+      <c r="V91">
+        <v>4.30908203125E-2</v>
+      </c>
+      <c r="W91">
+        <v>9.36279296875E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="15.75">
       <c r="A92" s="16">
         <v>91</v>
       </c>
@@ -6713,8 +7542,17 @@
       <c r="S92" s="14">
         <v>8.36181640625E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" ht="15.75">
+      <c r="U92">
+        <v>0.19913940654172499</v>
+      </c>
+      <c r="V92">
+        <v>6.43310546875E-2</v>
+      </c>
+      <c r="W92">
+        <v>0.1251220703125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="15.75">
       <c r="A93" s="16">
         <v>92</v>
       </c>
@@ -6777,8 +7615,17 @@
       <c r="S93" s="14">
         <v>0.1124267578125</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" ht="15.75">
+      <c r="U93">
+        <v>0.25217572415803902</v>
+      </c>
+      <c r="V93">
+        <v>8.75244140625E-2</v>
+      </c>
+      <c r="W93">
+        <v>0.1761474609375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="15.75">
       <c r="A94" s="16">
         <v>93</v>
       </c>
@@ -6841,8 +7688,17 @@
       <c r="S94" s="14">
         <v>0.1795654296875</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" ht="15.75">
+      <c r="U94">
+        <v>0.37991981692128401</v>
+      </c>
+      <c r="V94">
+        <v>0.1439208984375</v>
+      </c>
+      <c r="W94">
+        <v>0.2264404296875</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="15.75">
       <c r="A95" s="16">
         <v>94</v>
       </c>
@@ -6905,8 +7761,17 @@
       <c r="S95" s="14">
         <v>0.2100830078125</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" ht="15.75">
+      <c r="U95">
+        <v>0.42225576530803299</v>
+      </c>
+      <c r="V95">
+        <v>0.1529541015625</v>
+      </c>
+      <c r="W95">
+        <v>0.2872314453125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="15.75">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -6972,8 +7837,17 @@
       <c r="T96" s="11">
         <v>0.65469999999999995</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" ht="15.75">
+      <c r="U96">
+        <v>0.41384012134451598</v>
+      </c>
+      <c r="V96">
+        <v>0.2257080078125</v>
+      </c>
+      <c r="W96">
+        <v>0.4686279296875</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="15.75">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -7036,8 +7910,17 @@
       <c r="S97" s="11">
         <v>2.74658203125E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" ht="15.75">
+      <c r="U97">
+        <v>5.9440839271514799E-2</v>
+      </c>
+      <c r="V97">
+        <v>2.35595703125E-2</v>
+      </c>
+      <c r="W97">
+        <v>3.89404296875E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="15.75">
       <c r="A98" s="13">
         <v>97</v>
       </c>
@@ -7060,7 +7943,7 @@
         <v>0.44796755399999999</v>
       </c>
       <c r="H98" s="11">
-        <f t="shared" ref="H98:H111" si="17">E98*G98</f>
+        <f t="shared" ref="H98:H119" si="17">E98*G98</f>
         <v>0.15454880612999999</v>
       </c>
       <c r="I98" s="11">
@@ -7073,19 +7956,19 @@
         <v>0.2</v>
       </c>
       <c r="L98" s="11">
-        <f t="shared" ref="L98:L111" si="18">1000*M98*H98/0.00089</f>
+        <f t="shared" ref="L98:L119" si="18">1000*M98*H98/0.00089</f>
         <v>41676.082551910113</v>
       </c>
       <c r="M98" s="11">
-        <f t="shared" ref="M98:M111" si="19">4*I98*J98/(2*J98+I98)</f>
+        <f t="shared" ref="M98:M119" si="19">4*I98*J98/(2*J98+I98)</f>
         <v>0.23999999999999996</v>
       </c>
       <c r="N98" s="11">
-        <f t="shared" ref="N98:N111" si="20">L98*SQRT(M98/2/K98)</f>
+        <f t="shared" ref="N98:N119" si="20">L98*SQRT(M98/2/K98)</f>
         <v>32282.15473174267</v>
       </c>
       <c r="O98" s="10">
-        <f t="shared" ref="O98:O111" si="21">J98/I98</f>
+        <f t="shared" ref="O98:O119" si="21">J98/I98</f>
         <v>1</v>
       </c>
       <c r="P98" s="11">
@@ -7100,8 +7983,17 @@
       <c r="S98" s="11">
         <v>7.80029296875E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" ht="15.75">
+      <c r="U98">
+        <v>0.110230634738873</v>
+      </c>
+      <c r="V98">
+        <v>6.48193359375E-2</v>
+      </c>
+      <c r="W98">
+        <v>9.89990234375E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="15.75">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -7164,8 +8056,17 @@
       <c r="S99" s="11">
         <v>0.1575927734375</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" ht="15.75">
+      <c r="U99">
+        <v>0.210302076943509</v>
+      </c>
+      <c r="V99">
+        <v>0.1141357421875</v>
+      </c>
+      <c r="W99">
+        <v>0.1939697265625</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="15.75">
       <c r="A100" s="13">
         <v>99</v>
       </c>
@@ -7228,8 +8129,17 @@
       <c r="S100" s="11">
         <v>0.2010498046875</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" ht="15.75">
+      <c r="U100">
+        <v>0.29234157463437599</v>
+      </c>
+      <c r="V100">
+        <v>0.1663818359375</v>
+      </c>
+      <c r="W100">
+        <v>0.3123779296875</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="15.75">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -7292,8 +8202,17 @@
       <c r="S101" s="11">
         <v>0.2164306640625</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" ht="15.75">
+      <c r="U101">
+        <v>0.356802415151101</v>
+      </c>
+      <c r="V101">
+        <v>0.2030029296875</v>
+      </c>
+      <c r="W101">
+        <v>0.2969970703125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="15.75">
       <c r="A102" s="13">
         <v>101</v>
       </c>
@@ -7356,8 +8275,17 @@
       <c r="S102" s="11">
         <v>0.3123779296875</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" ht="15.75">
+      <c r="U102">
+        <v>0.44895670979053898</v>
+      </c>
+      <c r="V102">
+        <v>0.2420654296875</v>
+      </c>
+      <c r="W102">
+        <v>0.3905029296875</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="15.75">
       <c r="A103" s="13">
         <v>102</v>
       </c>
@@ -7420,8 +8348,17 @@
       <c r="S103" s="11">
         <v>0.2655029296875</v>
       </c>
-    </row>
-    <row r="104" spans="1:20">
+      <c r="U103">
+        <v>0.433277741655127</v>
+      </c>
+      <c r="V103">
+        <v>0.2144775390625</v>
+      </c>
+      <c r="W103">
+        <v>0.3511962890625</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" s="16">
         <v>103</v>
       </c>
@@ -7487,8 +8424,17 @@
       <c r="T104" s="14">
         <v>0.80500000000000005</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" ht="15.75">
+      <c r="U104">
+        <v>0.43467471700210097</v>
+      </c>
+      <c r="V104">
+        <v>0.3748779296875</v>
+      </c>
+      <c r="W104">
+        <v>0.3927001953125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="15.75">
       <c r="A105" s="16">
         <v>104</v>
       </c>
@@ -7551,8 +8497,17 @@
       <c r="S105" s="14">
         <v>6.23779296875E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" ht="15.75">
+      <c r="U105">
+        <v>6.9847181729682101E-2</v>
+      </c>
+      <c r="V105">
+        <v>5.18798828125E-2</v>
+      </c>
+      <c r="W105">
+        <v>6.43310546875E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="15.75">
       <c r="A106" s="16">
         <v>105</v>
       </c>
@@ -7615,8 +8570,17 @@
       <c r="S106" s="14">
         <v>0.1334228515625</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" ht="15.75">
+      <c r="U106">
+        <v>0.14379650122159501</v>
+      </c>
+      <c r="V106">
+        <v>0.1055908203125</v>
+      </c>
+      <c r="W106">
+        <v>0.1500244140625</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="15.75">
       <c r="A107" s="16">
         <v>106</v>
       </c>
@@ -7679,8 +8643,17 @@
       <c r="S107" s="14">
         <v>0.2362060546875</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" ht="15.75">
+      <c r="U107">
+        <v>0.27473788640715902</v>
+      </c>
+      <c r="V107">
+        <v>0.1990966796875</v>
+      </c>
+      <c r="W107">
+        <v>0.2789306640625</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="15.75">
       <c r="A108" s="16">
         <v>107</v>
       </c>
@@ -7743,8 +8716,17 @@
       <c r="S108" s="14">
         <v>0.3123779296875</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" ht="15.75">
+      <c r="U108">
+        <v>0.377328185679077</v>
+      </c>
+      <c r="V108">
+        <v>0.2510986328125</v>
+      </c>
+      <c r="W108">
+        <v>0.3905029296875</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="15.75">
       <c r="A109" s="16">
         <v>108</v>
       </c>
@@ -7807,8 +8789,17 @@
       <c r="S109" s="14">
         <v>0.3206787109375</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" ht="15.75">
+      <c r="U109">
+        <v>0.418212845727995</v>
+      </c>
+      <c r="V109">
+        <v>0.2889404296875</v>
+      </c>
+      <c r="W109">
+        <v>0.4552001953125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="15.75">
       <c r="A110" s="16">
         <v>109</v>
       </c>
@@ -7871,8 +8862,17 @@
       <c r="S110" s="14">
         <v>0.3145751953125</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" ht="15.75">
+      <c r="U110">
+        <v>0.39776612140915601</v>
+      </c>
+      <c r="V110">
+        <v>0.2371826171875</v>
+      </c>
+      <c r="W110">
+        <v>0.4998779296875</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="15.75">
       <c r="A111" s="16">
         <v>110</v>
       </c>
@@ -7934,6 +8934,599 @@
       </c>
       <c r="S111" s="14">
         <v>0.3721923828125</v>
+      </c>
+      <c r="U111">
+        <v>0.38633602335280998</v>
+      </c>
+      <c r="V111">
+        <v>0.2701416015625</v>
+      </c>
+      <c r="W111">
+        <v>0.4783935546875</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
+      <c r="A112" s="16">
+        <v>111</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="17">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F112" s="17">
+        <v>25041775</v>
+      </c>
+      <c r="G112" s="17">
+        <v>1.3242613400000001</v>
+      </c>
+      <c r="H112" s="17">
+        <f t="shared" si="17"/>
+        <v>0.47011277569999999</v>
+      </c>
+      <c r="I112" s="17">
+        <v>1.48</v>
+      </c>
+      <c r="J112" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="K112" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="L112" s="17">
+        <f t="shared" si="18"/>
+        <v>345620.46289192192</v>
+      </c>
+      <c r="M112" s="17">
+        <f t="shared" si="19"/>
+        <v>0.65431578947368418</v>
+      </c>
+      <c r="N112" s="17">
+        <f t="shared" si="20"/>
+        <v>161410.77413131407</v>
+      </c>
+      <c r="O112" s="10">
+        <f t="shared" si="21"/>
+        <v>0.14189189189189189</v>
+      </c>
+      <c r="P112" s="17">
+        <v>0.14420456000000001</v>
+      </c>
+      <c r="Q112" s="17">
+        <v>4.1400002999999996</v>
+      </c>
+      <c r="R112" s="17">
+        <v>0.30200031936168698</v>
+      </c>
+      <c r="S112" s="17">
+        <v>0.2498779296875</v>
+      </c>
+      <c r="U112">
+        <v>0.31743667066097297</v>
+      </c>
+      <c r="V112">
+        <v>9.92431640625E-2</v>
+      </c>
+      <c r="W112">
+        <v>0.1585693359375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="15.75">
+      <c r="A113" s="16">
+        <v>112</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" s="17">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F113" s="17">
+        <v>25041775</v>
+      </c>
+      <c r="G113" s="17">
+        <v>0.132426134</v>
+      </c>
+      <c r="H113" s="17">
+        <f t="shared" si="17"/>
+        <v>4.7011277569999996E-2</v>
+      </c>
+      <c r="I113" s="17">
+        <v>1.48</v>
+      </c>
+      <c r="J113" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="K113" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="L113" s="17">
+        <f t="shared" si="18"/>
+        <v>34562.046289192185</v>
+      </c>
+      <c r="M113" s="17">
+        <f t="shared" si="19"/>
+        <v>0.65431578947368418</v>
+      </c>
+      <c r="N113" s="17">
+        <f t="shared" si="20"/>
+        <v>16141.077413131403</v>
+      </c>
+      <c r="O113" s="10">
+        <f t="shared" si="21"/>
+        <v>0.14189189189189189</v>
+      </c>
+      <c r="P113" s="17">
+        <v>8.1077032E-3</v>
+      </c>
+      <c r="Q113" s="17">
+        <v>5.2799997000000003</v>
+      </c>
+      <c r="R113" s="17">
+        <v>3.09587936848402E-2</v>
+      </c>
+      <c r="S113" s="17">
+        <v>3.7841796875E-3</v>
+      </c>
+      <c r="U113">
+        <v>3.0300116464495701E-2</v>
+      </c>
+      <c r="V113">
+        <v>2.8076171875E-3</v>
+      </c>
+      <c r="W113">
+        <v>3.7841796875E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="15.75">
+      <c r="A114" s="16">
+        <v>113</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" s="17">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F114" s="17">
+        <v>25041775</v>
+      </c>
+      <c r="G114" s="17">
+        <v>0.264852268</v>
+      </c>
+      <c r="H114" s="17">
+        <f t="shared" si="17"/>
+        <v>9.4022555139999991E-2</v>
+      </c>
+      <c r="I114" s="17">
+        <v>1.48</v>
+      </c>
+      <c r="J114" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="K114" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="L114" s="17">
+        <f t="shared" si="18"/>
+        <v>69124.09257838437</v>
+      </c>
+      <c r="M114" s="17">
+        <f t="shared" si="19"/>
+        <v>0.65431578947368418</v>
+      </c>
+      <c r="N114" s="17">
+        <f t="shared" si="20"/>
+        <v>32282.154826262806</v>
+      </c>
+      <c r="O114" s="10">
+        <f t="shared" si="21"/>
+        <v>0.14189189189189189</v>
+      </c>
+      <c r="P114" s="17">
+        <v>2.3346730999999999E-2</v>
+      </c>
+      <c r="Q114" s="17">
+        <v>3.3199999</v>
+      </c>
+      <c r="R114" s="17">
+        <v>6.7382896691560806E-2</v>
+      </c>
+      <c r="S114" s="17">
+        <v>3.2958984375E-3</v>
+      </c>
+      <c r="U114">
+        <v>6.5923352688550901E-2</v>
+      </c>
+      <c r="V114">
+        <v>3.2958984375E-3</v>
+      </c>
+      <c r="W114">
+        <v>2.72216796875E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="15.75">
+      <c r="A115" s="16">
+        <v>114</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="17">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F115" s="17">
+        <v>25041775</v>
+      </c>
+      <c r="G115" s="17">
+        <v>0.529704536</v>
+      </c>
+      <c r="H115" s="17">
+        <f t="shared" si="17"/>
+        <v>0.18804511027999998</v>
+      </c>
+      <c r="I115" s="17">
+        <v>1.48</v>
+      </c>
+      <c r="J115" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="K115" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="L115" s="17">
+        <f t="shared" si="18"/>
+        <v>138248.18515676874</v>
+      </c>
+      <c r="M115" s="17">
+        <f t="shared" si="19"/>
+        <v>0.65431578947368418</v>
+      </c>
+      <c r="N115" s="17">
+        <f t="shared" si="20"/>
+        <v>64564.309652525611</v>
+      </c>
+      <c r="O115" s="10">
+        <f t="shared" si="21"/>
+        <v>0.14189189189189189</v>
+      </c>
+      <c r="P115" s="17">
+        <v>6.2064293999999999E-2</v>
+      </c>
+      <c r="Q115" s="17">
+        <v>3.3799999000000001</v>
+      </c>
+      <c r="R115" s="17">
+        <v>0.13214004099369001</v>
+      </c>
+      <c r="S115" s="17">
+        <v>4.28466796875E-2</v>
+      </c>
+      <c r="U115">
+        <v>0.14534366190433501</v>
+      </c>
+      <c r="V115">
+        <v>3.52783203125E-2</v>
+      </c>
+      <c r="W115">
+        <v>6.14013671875E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="15.75">
+      <c r="A116" s="16">
+        <v>115</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="17">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F116" s="17">
+        <v>25041775</v>
+      </c>
+      <c r="G116" s="17">
+        <v>0.79455680399999995</v>
+      </c>
+      <c r="H116" s="17">
+        <f t="shared" si="17"/>
+        <v>0.28206766541999995</v>
+      </c>
+      <c r="I116" s="17">
+        <v>1.48</v>
+      </c>
+      <c r="J116" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="K116" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="L116" s="17">
+        <f t="shared" si="18"/>
+        <v>207372.2777351531</v>
+      </c>
+      <c r="M116" s="17">
+        <f t="shared" si="19"/>
+        <v>0.65431578947368418</v>
+      </c>
+      <c r="N116" s="17">
+        <f t="shared" si="20"/>
+        <v>96846.464478788417</v>
+      </c>
+      <c r="O116" s="10">
+        <f t="shared" si="21"/>
+        <v>0.14189189189189189</v>
+      </c>
+      <c r="P116" s="17">
+        <v>9.4408601999999994E-2</v>
+      </c>
+      <c r="Q116" s="17">
+        <v>3.4399997999999998</v>
+      </c>
+      <c r="R116" s="17">
+        <v>0.19322386085987101</v>
+      </c>
+      <c r="S116" s="17">
+        <v>6.82373046875E-2</v>
+      </c>
+      <c r="U116">
+        <v>0.212005595564842</v>
+      </c>
+      <c r="V116">
+        <v>5.01708984375E-2</v>
+      </c>
+      <c r="W116">
+        <v>0.1016845703125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="15.75">
+      <c r="A117" s="16">
+        <v>116</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" s="17">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F117" s="17">
+        <v>25041775</v>
+      </c>
+      <c r="G117" s="17">
+        <v>1.059409072</v>
+      </c>
+      <c r="H117" s="17">
+        <f t="shared" si="17"/>
+        <v>0.37609022055999997</v>
+      </c>
+      <c r="I117" s="17">
+        <v>1.48</v>
+      </c>
+      <c r="J117" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="K117" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="L117" s="17">
+        <f t="shared" si="18"/>
+        <v>276496.37031353748</v>
+      </c>
+      <c r="M117" s="17">
+        <f t="shared" si="19"/>
+        <v>0.65431578947368418</v>
+      </c>
+      <c r="N117" s="17">
+        <f t="shared" si="20"/>
+        <v>129128.61930505122</v>
+      </c>
+      <c r="O117" s="10">
+        <f t="shared" si="21"/>
+        <v>0.14189189189189189</v>
+      </c>
+      <c r="P117" s="17">
+        <v>0.13564876000000001</v>
+      </c>
+      <c r="Q117" s="17">
+        <v>4.1199998999999998</v>
+      </c>
+      <c r="R117" s="17">
+        <v>0.264483553767204</v>
+      </c>
+      <c r="S117" s="17">
+        <v>0.1024169921875</v>
+      </c>
+      <c r="U117">
+        <v>0.272017335891724</v>
+      </c>
+      <c r="V117">
+        <v>8.48388671875E-2</v>
+      </c>
+      <c r="W117">
+        <v>0.1287841796875</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="15.75">
+      <c r="A118" s="16">
+        <v>117</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" s="17">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F118" s="17">
+        <v>25041775</v>
+      </c>
+      <c r="G118" s="17">
+        <v>1.5891136079999999</v>
+      </c>
+      <c r="H118" s="17">
+        <f t="shared" si="17"/>
+        <v>0.56413533083999989</v>
+      </c>
+      <c r="I118" s="17">
+        <v>1.48</v>
+      </c>
+      <c r="J118" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="K118" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="L118" s="17">
+        <f t="shared" si="18"/>
+        <v>414744.55547030619</v>
+      </c>
+      <c r="M118" s="17">
+        <f t="shared" si="19"/>
+        <v>0.65431578947368418</v>
+      </c>
+      <c r="N118" s="17">
+        <f t="shared" si="20"/>
+        <v>193692.92895757683</v>
+      </c>
+      <c r="O118" s="10">
+        <f t="shared" si="21"/>
+        <v>0.14189189189189189</v>
+      </c>
+      <c r="P118" s="17">
+        <v>0.15026181999999999</v>
+      </c>
+      <c r="Q118" s="17">
+        <v>3.9400000999999998</v>
+      </c>
+      <c r="R118" s="17">
+        <v>0.34399993746888402</v>
+      </c>
+      <c r="S118" s="17">
+        <v>0.1322021484375</v>
+      </c>
+      <c r="U118">
+        <v>0.35997885290314202</v>
+      </c>
+      <c r="V118">
+        <v>0.1121826171875</v>
+      </c>
+      <c r="W118">
+        <v>0.2498779296875</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="15.75">
+      <c r="A119" s="16">
+        <v>118</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" s="17">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F119" s="17">
+        <v>25041775</v>
+      </c>
+      <c r="G119" s="17">
+        <v>1.9863920100000001</v>
+      </c>
+      <c r="H119" s="17">
+        <f t="shared" si="17"/>
+        <v>0.70516916355000003</v>
+      </c>
+      <c r="I119" s="17">
+        <v>1.48</v>
+      </c>
+      <c r="J119" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="K119" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="L119" s="17">
+        <f t="shared" si="18"/>
+        <v>518430.69433788292</v>
+      </c>
+      <c r="M119" s="17">
+        <f t="shared" si="19"/>
+        <v>0.65431578947368418</v>
+      </c>
+      <c r="N119" s="17">
+        <f t="shared" si="20"/>
+        <v>242116.16119697111</v>
+      </c>
+      <c r="O119" s="10">
+        <f t="shared" si="21"/>
+        <v>0.14189189189189189</v>
+      </c>
+      <c r="P119" s="17">
+        <v>0.16658472999999999</v>
+      </c>
+      <c r="Q119" s="17">
+        <v>4.0799998999999998</v>
+      </c>
+      <c r="R119" s="17">
+        <v>0.39578010600346802</v>
+      </c>
+      <c r="S119" s="17">
+        <v>0.1483154296875</v>
+      </c>
+      <c r="U119">
+        <v>0.40820400416850999</v>
+      </c>
+      <c r="V119">
+        <v>0.1104736328125</v>
+      </c>
+      <c r="W119">
+        <v>0.1868896484375</v>
       </c>
     </row>
   </sheetData>
